--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 9 (19, 31, 22, 5, 21)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(19, 31, 22, 5, 21)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 9 (19, 31, 22, 5, 21)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(19, 31, 22, 5, 21)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.594549951262243</v>
+        <v>0.5941044984698646</v>
       </c>
       <c r="E2">
-        <v>0.594549951262243</v>
+        <v>0.5941044984698646</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.001145294792869911</v>
+        <v>0.001144904478007686</v>
       </c>
       <c r="E3">
-        <v>0.001145294792869911</v>
+        <v>0.001144904478007686</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9488790954014074</v>
+        <v>0.9488775416732173</v>
       </c>
       <c r="E4">
-        <v>0.9488790954014074</v>
+        <v>0.9488775416732173</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.04896969513962917</v>
+        <v>0.04907159283619292</v>
       </c>
       <c r="E5">
-        <v>0.04896969513962917</v>
+        <v>0.04907159283619292</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.2303737756918922</v>
+        <v>0.2303919460329533</v>
       </c>
       <c r="E6">
-        <v>0.2303737756918922</v>
+        <v>0.2303919460329533</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9899050060680661</v>
+        <v>0.8534811682151161</v>
       </c>
       <c r="E7">
-        <v>0.01009499393193392</v>
+        <v>0.1465188317848839</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9911115794392384</v>
+        <v>0.001207019421165155</v>
       </c>
       <c r="E8">
-        <v>0.008888420560761556</v>
+        <v>0.9987929805788348</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9903134436751945</v>
+        <v>0.9868877157573662</v>
       </c>
       <c r="E9">
-        <v>0.009686556324805529</v>
+        <v>0.01311228424263378</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.988416472416302</v>
+        <v>0.0007363213694898383</v>
       </c>
       <c r="E10">
-        <v>0.01158352758369796</v>
+        <v>0.9992636786305101</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9902629904849423</v>
+        <v>0.9999999381780804</v>
       </c>
       <c r="E11">
-        <v>0.009737009515057737</v>
+        <v>6.18219195835934E-08</v>
       </c>
       <c r="F11">
-        <v>0.4239768385887146</v>
+        <v>1.829360246658325</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.8566133189717425</v>
+        <v>0.8562582463161288</v>
       </c>
       <c r="E12">
-        <v>0.8566133189717425</v>
+        <v>0.8562582463161288</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>3.683913749562659E-05</v>
+        <v>3.684100776501542E-05</v>
       </c>
       <c r="E13">
-        <v>3.683913749562659E-05</v>
+        <v>3.684100776501542E-05</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.9974891248225076</v>
+        <v>0.9974794082974022</v>
       </c>
       <c r="E14">
-        <v>0.9974891248225076</v>
+        <v>0.9974794082974022</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.004226725752907822</v>
+        <v>0.004237297386042994</v>
       </c>
       <c r="E15">
-        <v>0.004226725752907822</v>
+        <v>0.004237297386042994</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.2089043336080905</v>
+        <v>0.208829455497294</v>
       </c>
       <c r="E16">
-        <v>0.2089043336080905</v>
+        <v>0.208829455497294</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9986199506514727</v>
+        <v>0.9882871501413207</v>
       </c>
       <c r="E17">
-        <v>0.001380049348527312</v>
+        <v>0.01171284985867926</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9989484853920997</v>
+        <v>2.532348319467842E-09</v>
       </c>
       <c r="E18">
-        <v>0.001051514607900317</v>
+        <v>0.9999999974676517</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9988086593640524</v>
+        <v>0.9570022233664972</v>
       </c>
       <c r="E19">
-        <v>0.001191340635947613</v>
+        <v>0.04299777663350279</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9983849565213772</v>
+        <v>2.12927158470294E-05</v>
       </c>
       <c r="E20">
-        <v>0.001615043478622846</v>
+        <v>0.9999787072841529</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9990038334203366</v>
+        <v>0.9999999999999976</v>
       </c>
       <c r="E21">
-        <v>0.0009961665796633934</v>
+        <v>2.442490654175344E-15</v>
       </c>
       <c r="F21">
-        <v>0.8174182176589966</v>
+        <v>3.876851558685303</v>
       </c>
       <c r="G21">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
